--- a/springboot-excel/src/main/resources/out5.xlsx
+++ b/springboot-excel/src/main/resources/out5.xlsx
@@ -4,17 +4,39 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="27040" windowHeight="12520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet1!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,7 +509,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1172,33 +1194,63 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection password="81F1" sheet="true" scenarios="true" objects="true"/>
+  <sheetProtection password="DED9" sheet="true" scenarios="true" objects="true" autoFilter="false" sort="false"/>
+  <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <picture r:id="rId1"/>
-  <picture r:id="rId2"/>
 </worksheet>
 </file>